--- a/biology/Médecine/Hôpital_Dom_Vicente_Scherer/Hôpital_Dom_Vicente_Scherer.xlsx
+++ b/biology/Médecine/Hôpital_Dom_Vicente_Scherer/Hôpital_Dom_Vicente_Scherer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Dom_Vicente_Scherer</t>
+          <t>Hôpital_Dom_Vicente_Scherer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital Hôpital Dom Vicente Scherer est une unité du complexe hospitalier de la Santa Casa de Misericórdia de Porto Alegre. En plus d'être un centre de médecine clinique, il possède le premier Centre de transplantations de tous les types d'organes et de tissus d'Amérique latine.
  Portail des soins infirmiers   Portail du Rio Grande do Sul                    </t>
